--- a/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c0.xlsx
+++ b/Instances/G5047534_NonStationary_b4_fe25_el_rk50_ll2_l40_HTrue_c0.xlsx
@@ -489,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -521,7 +521,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="n">
-        <v>10.43104553222656</v>
+        <v>10.94553920200893</v>
       </c>
       <c r="I2" t="n">
         <v>448</v>
@@ -1018,7 +1018,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>5.01593017578125</v>
+        <v>3.653459821428572</v>
       </c>
       <c r="I3" t="n">
         <v>496</v>
@@ -1068,7 +1068,7 @@
         <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>5.964019775390625</v>
+        <v>8.439923967633929</v>
       </c>
       <c r="I4" t="n">
         <v>492</v>
@@ -1082,7 +1082,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>11.62721252441406</v>
+        <v>19.69730050223214</v>
       </c>
       <c r="I5" t="n">
         <v>444</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1242,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1497,16 +1497,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1567,16 +1567,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E8" t="n">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1602,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C9" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="E9" t="n">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="E10" t="n">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1672,16 +1672,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C11" t="n">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1707,16 +1707,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C12" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="E13" t="n">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C14" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D14" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C15" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="E15" t="n">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1839,76 +1839,6 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>93</v>
-      </c>
-      <c r="C16" t="n">
-        <v>53</v>
-      </c>
-      <c r="D16" t="n">
-        <v>40</v>
-      </c>
-      <c r="E16" t="n">
-        <v>62</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>65</v>
-      </c>
-      <c r="C17" t="n">
-        <v>26</v>
-      </c>
-      <c r="D17" t="n">
-        <v>62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>63</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1923,7 +1853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2073,34 +2003,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2108,34 +2038,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>6.875</v>
       </c>
       <c r="C6" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-0</v>
+        <v>5.125</v>
       </c>
       <c r="E6" t="n">
-        <v>-0</v>
+        <v>12.875</v>
       </c>
       <c r="F6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2143,16 +2073,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.0625</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>24.5625</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -2178,16 +2108,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.375</v>
+        <v>12.25</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>8.5</v>
+        <v>17.0625</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>22.75</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -2213,16 +2143,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16.5</v>
+        <v>17.578125</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0625</v>
+        <v>5.390625</v>
       </c>
       <c r="D9" t="n">
-        <v>4.125</v>
+        <v>19.453125</v>
       </c>
       <c r="E9" t="n">
-        <v>12.9375</v>
+        <v>20.859375</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -2248,16 +2178,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.125</v>
+        <v>16.2265625</v>
       </c>
       <c r="C10" t="n">
-        <v>4.15625</v>
+        <v>10.4140625</v>
       </c>
       <c r="D10" t="n">
-        <v>8.75</v>
+        <v>2.6640625</v>
       </c>
       <c r="E10" t="n">
-        <v>21.21875</v>
+        <v>33.90625</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2283,16 +2213,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.234375</v>
+        <v>13.2890625</v>
       </c>
       <c r="C11" t="n">
-        <v>9.609375</v>
+        <v>3.9375</v>
       </c>
       <c r="D11" t="n">
-        <v>13.59375</v>
+        <v>12.796875</v>
       </c>
       <c r="E11" t="n">
-        <v>34.21875</v>
+        <v>30.515625</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -2318,16 +2248,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.796875</v>
+        <v>20.33984375</v>
       </c>
       <c r="C12" t="n">
-        <v>9.4453125</v>
+        <v>7.689453125</v>
       </c>
       <c r="D12" t="n">
-        <v>10.8984375</v>
+        <v>10.666015625</v>
       </c>
       <c r="E12" t="n">
-        <v>19.6171875</v>
+        <v>28.7734375</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -2353,16 +2283,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.65625</v>
+        <v>19.6728515625</v>
       </c>
       <c r="C13" t="n">
-        <v>9.84375</v>
+        <v>2.98828125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.24609375</v>
+        <v>18.1787109375</v>
       </c>
       <c r="E13" t="n">
-        <v>31.9921875</v>
+        <v>40.5908203125</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2388,16 +2318,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>18.603515625</v>
+        <v>21.70751953125</v>
       </c>
       <c r="C14" t="n">
-        <v>5.953125</v>
+        <v>9.23193359375</v>
       </c>
       <c r="D14" t="n">
-        <v>15.37890625</v>
+        <v>13.4736328125</v>
       </c>
       <c r="E14" t="n">
-        <v>6.201171875</v>
+        <v>11.4775390625</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -2423,16 +2353,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>21.1669921875</v>
+        <v>14.236083984375</v>
       </c>
       <c r="C15" t="n">
-        <v>8.466796875</v>
+        <v>3.49658203125</v>
       </c>
       <c r="D15" t="n">
-        <v>8.466796875</v>
+        <v>11.239013671875</v>
       </c>
       <c r="E15" t="n">
-        <v>26.6455078125</v>
+        <v>49.45166015625</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -2450,76 +2380,6 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>23.20458984375</v>
-      </c>
-      <c r="C16" t="n">
-        <v>13.22412109375</v>
-      </c>
-      <c r="D16" t="n">
-        <v>9.98046875</v>
-      </c>
-      <c r="E16" t="n">
-        <v>15.4697265625</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>16.234130859375</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6.49365234375</v>
-      </c>
-      <c r="D17" t="n">
-        <v>15.48486328125</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15.734619140625</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
         <v>0</v>
       </c>
     </row>
